--- a/backend/etu-neo4j.xlsx
+++ b/backend/etu-neo4j.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\nosql2h20-etu-neo4j\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="2" activeTab="8"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="faculty" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="department" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="employee" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="employee_department" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="publication" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="degree" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="employee_degree" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="discipline" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="employee_discipline" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Запросы" sheetId="10" r:id="rId13"/>
+    <sheet name="faculty" sheetId="1" r:id="rId1"/>
+    <sheet name="department" sheetId="2" r:id="rId2"/>
+    <sheet name="employee" sheetId="3" r:id="rId3"/>
+    <sheet name="employee_department" sheetId="4" r:id="rId4"/>
+    <sheet name="publication" sheetId="5" r:id="rId5"/>
+    <sheet name="degree" sheetId="6" r:id="rId6"/>
+    <sheet name="employee_degree" sheetId="7" r:id="rId7"/>
+    <sheet name="discipline" sheetId="8" r:id="rId8"/>
+    <sheet name="employee_discipline" sheetId="9" r:id="rId9"/>
+    <sheet name="Запросы" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -375,11 +383,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>f.id</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> IS UNIQUE;</t>
     </r>
   </si>
@@ -389,11 +404,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>d.id</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> IS UNIQUE;</t>
     </r>
   </si>
@@ -415,12 +437,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=0&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -433,12 +462,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=894775927&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -457,12 +493,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=214400289&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -475,12 +518,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=424926872&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -496,12 +546,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=176689214&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -520,12 +577,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=511928090&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -538,12 +602,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=678265208&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -559,12 +630,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=1262507770&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -577,12 +655,19 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vRKHVya5zQn0Ny5_14xZ7gltguOxBSVNpZ7t0trdbPaIRugIx8tkylzbohgwGvQJO86jdPLZNkpWpvi/pub?gid=607722125&amp;single=true&amp;output=csv</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>" AS line</t>
     </r>
   </si>
@@ -591,45 +676,67 @@
   </si>
   <si>
     <t>CREATE (e)-[:TEACH_A_DISCIPLINE {group:toInteger(line.group), time:line.time, auditorium:line.auditorium}]-&gt;(d);</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>3403</t>
+  </si>
+  <si>
+    <t>3405</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF777777"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -637,7 +744,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -647,116 +754,60 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -946,23 +997,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="50.71"/>
+    <col min="2" max="3" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -987,255 +1041,257 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="209.0"/>
+    <col min="1" max="1" width="209" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1">
       <c r="A4" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1">
       <c r="A7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1">
       <c r="A9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1">
       <c r="A10" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1">
       <c r="A11" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1">
       <c r="A12" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1">
       <c r="A13" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1">
       <c r="A14" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1">
       <c r="A15" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1">
       <c r="A16" s="16"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1">
       <c r="A17" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1">
       <c r="A25" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1">
       <c r="A27" s="16"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1">
       <c r="A28" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1">
       <c r="A32" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1">
       <c r="A37" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1">
       <c r="A40" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1">
       <c r="A44" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1">
       <c r="A47" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A17"/>
-    <hyperlink r:id="rId2" ref="A20"/>
-    <hyperlink r:id="rId3" ref="A25"/>
-    <hyperlink r:id="rId4" ref="A28"/>
-    <hyperlink r:id="rId5" ref="A32"/>
-    <hyperlink r:id="rId6" ref="A37"/>
-    <hyperlink r:id="rId7" ref="A40"/>
-    <hyperlink r:id="rId8" ref="A44"/>
-    <hyperlink r:id="rId9" ref="A47"/>
+    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A20" r:id="rId2"/>
+    <hyperlink ref="A25" r:id="rId3"/>
+    <hyperlink ref="A28" r:id="rId4"/>
+    <hyperlink ref="A32" r:id="rId5"/>
+    <hyperlink ref="A37" r:id="rId6"/>
+    <hyperlink ref="A40" r:id="rId7"/>
+    <hyperlink ref="A44" r:id="rId8"/>
+    <hyperlink ref="A47" r:id="rId9"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="74.86"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,192 +1302,193 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="40.43"/>
-    <col customWidth="1" min="3" max="3" width="83.43"/>
-    <col customWidth="1" min="4" max="4" width="23.71"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1448,9 +1505,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1465,9 +1522,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -1482,9 +1539,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -1499,9 +1556,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -1516,9 +1573,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
@@ -1533,9 +1590,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -1550,9 +1607,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
@@ -1568,24 +1625,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="56.29"/>
+    <col min="3" max="3" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1596,113 +1654,114 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="61.29"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1713,432 +1772,433 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="8">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="8">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="8">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="8">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="8">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="8">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="8">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="8">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="8">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="8">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="8">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.86"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2146,41 +2206,44 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="B4" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -2188,81 +2251,82 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="52.71"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2270,74 +2334,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="34.29"/>
-    <col customWidth="1" min="4" max="4" width="40.0"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -2354,347 +2421,347 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>7303.0</v>
+        <v>7303</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>7304.0</v>
+        <v>7304</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>7381.0</v>
+        <v>7381</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>7382.0</v>
+        <v>7382</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>7383.0</v>
+        <v>7383</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>7303.0</v>
+        <v>7303</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="3">
-        <v>3405.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>7304.0</v>
+        <v>7304</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="3">
-        <v>3405.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>7381.0</v>
+        <v>7381</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="3">
-        <v>3405.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>7382.0</v>
+        <v>7382</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="3">
-        <v>3405.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>7383.0</v>
+        <v>7383</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="3">
-        <v>3405.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>7304.0</v>
+        <v>7304</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="3">
-        <v>3403.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>7303.0</v>
+        <v>7303</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="3">
-        <v>3403.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>7304.0</v>
+        <v>7304</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="3">
-        <v>3403.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>7303.0</v>
+        <v>7303</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="3">
-        <v>3403.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>7381.0</v>
+        <v>7381</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>7382.0</v>
+        <v>7382</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>7383.0</v>
+        <v>7383</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>7381.0</v>
+        <v>7381</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>7382.0</v>
+        <v>7382</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="3">
-        <v>3410.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B21" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>7383.0</v>
+        <v>7383</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="3">
-        <v>3410.0</v>
+      <c r="E21" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>